--- a/Files/MetroParis.xlsx
+++ b/Files/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\Cours_ESILV_Année_2\Pb_scientifique_info\Liv-in-Paris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guill\Documents\Projets PSI\Liv-in-Paris\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB51A6D-EE17-49A7-800B-3F7217EA1FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278DB693-E8E8-44C0-B44B-C7F9A24D804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="5080" yWindow="1520" windowWidth="25240" windowHeight="12740" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="772">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -2352,15 +2352,6 @@
   </si>
   <si>
     <t>Temps de Changement</t>
-  </si>
-  <si>
-    <t>Sens Unique</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Oui</t>
   </si>
   <si>
     <t>Marche</t>
@@ -2447,9 +2438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2487,7 +2478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2593,7 +2584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2735,7 +2726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2745,16 +2736,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="H351" sqref="H351"/>
+    <sheetView topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>764</v>
       </c>
@@ -2777,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2823,7 +2814,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2846,7 +2837,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2869,7 +2860,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2892,7 +2883,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2915,7 +2906,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2938,7 +2929,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2961,7 +2952,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2984,7 +2975,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3007,7 +2998,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3030,7 +3021,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3053,7 +3044,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3076,7 +3067,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3099,7 +3090,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3122,7 +3113,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3145,7 +3136,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3168,7 +3159,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3191,7 +3182,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3214,7 +3205,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3237,7 +3228,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3260,7 +3251,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3283,7 +3274,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3306,7 +3297,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3329,7 +3320,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3352,7 +3343,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3375,7 +3366,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3398,7 +3389,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3421,7 +3412,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3444,7 +3435,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3467,7 +3458,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3490,7 +3481,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3513,7 +3504,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3536,7 +3527,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3559,7 +3550,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3582,7 +3573,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3605,7 +3596,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3628,7 +3619,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3651,7 +3642,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3674,7 +3665,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3697,7 +3688,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3720,7 +3711,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3743,7 +3734,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3766,7 +3757,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3789,7 +3780,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3812,7 +3803,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3835,7 +3826,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3858,7 +3849,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3881,7 +3872,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3904,7 +3895,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3927,7 +3918,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3950,7 +3941,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3973,7 +3964,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3996,7 +3987,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4019,7 +4010,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4042,7 +4033,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4065,7 +4056,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4088,7 +4079,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4111,7 +4102,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4134,7 +4125,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4157,7 +4148,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4180,7 +4171,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4203,7 +4194,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4226,7 +4217,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4249,7 +4240,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4272,7 +4263,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4295,7 +4286,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4318,7 +4309,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4341,7 +4332,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4364,7 +4355,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4387,7 +4378,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4410,7 +4401,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4433,7 +4424,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4456,7 +4447,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4479,7 +4470,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4502,7 +4493,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4525,7 +4516,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4548,7 +4539,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4571,7 +4562,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4594,7 +4585,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4617,7 +4608,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4640,7 +4631,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4663,7 +4654,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4686,7 +4677,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4709,7 +4700,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4732,7 +4723,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4755,7 +4746,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4778,7 +4769,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4801,7 +4792,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4824,7 +4815,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4847,7 +4838,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4870,7 +4861,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4893,7 +4884,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4916,7 +4907,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4939,7 +4930,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4962,7 +4953,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4985,7 +4976,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5008,7 +4999,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5031,7 +5022,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5054,7 +5045,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5077,7 +5068,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5100,7 +5091,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5123,7 +5114,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5146,7 +5137,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5169,7 +5160,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5192,7 +5183,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5215,7 +5206,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5238,7 +5229,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5261,7 +5252,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5284,7 +5275,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5307,7 +5298,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5330,7 +5321,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5353,7 +5344,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5376,7 +5367,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5399,7 +5390,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5422,7 +5413,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5445,7 +5436,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5468,7 +5459,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5491,7 +5482,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5514,7 +5505,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5537,7 +5528,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5560,7 +5551,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5583,7 +5574,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5606,7 +5597,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5629,7 +5620,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5652,7 +5643,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5675,7 +5666,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5698,7 +5689,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5721,7 +5712,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5744,7 +5735,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5767,7 +5758,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5790,7 +5781,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5813,7 +5804,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5836,7 +5827,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5859,7 +5850,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5882,7 +5873,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5905,7 +5896,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5928,7 +5919,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5951,7 +5942,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5974,7 +5965,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5997,7 +5988,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6020,7 +6011,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6043,7 +6034,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6066,7 +6057,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6089,7 +6080,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6112,7 +6103,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6135,7 +6126,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6158,7 +6149,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6181,7 +6172,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6204,7 +6195,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6227,7 +6218,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6250,7 +6241,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6273,7 +6264,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6296,7 +6287,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6319,7 +6310,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6342,7 +6333,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6365,7 +6356,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6388,7 +6379,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6411,7 +6402,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6434,7 +6425,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6457,7 +6448,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6480,7 +6471,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6503,7 +6494,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6526,7 +6517,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6549,7 +6540,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6572,7 +6563,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6595,7 +6586,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6618,7 +6609,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6641,7 +6632,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6664,7 +6655,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6687,7 +6678,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6710,7 +6701,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6733,7 +6724,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6756,7 +6747,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6779,7 +6770,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6802,7 +6793,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6825,7 +6816,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6848,7 +6839,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6871,7 +6862,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6894,7 +6885,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6917,7 +6908,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6940,7 +6931,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6963,7 +6954,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6986,7 +6977,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7009,7 +7000,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7032,7 +7023,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7055,7 +7046,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7078,7 +7069,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7101,7 +7092,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7124,7 +7115,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7147,7 +7138,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7170,7 +7161,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7193,7 +7184,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7216,7 +7207,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7239,7 +7230,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7262,7 +7253,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7285,7 +7276,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7308,7 +7299,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7331,7 +7322,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7354,7 +7345,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7377,7 +7368,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7400,7 +7391,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7423,7 +7414,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7446,7 +7437,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7469,7 +7460,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7492,7 +7483,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7515,7 +7506,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7538,7 +7529,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7561,7 +7552,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7584,7 +7575,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7607,7 +7598,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7630,7 +7621,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7653,7 +7644,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7676,7 +7667,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7699,7 +7690,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7722,7 +7713,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7745,7 +7736,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7768,7 +7759,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7791,7 +7782,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7814,7 +7805,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7837,7 +7828,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7860,7 +7851,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7883,7 +7874,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7906,7 +7897,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7929,7 +7920,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7952,7 +7943,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7975,7 +7966,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7998,7 +7989,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8021,7 +8012,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8044,7 +8035,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8067,7 +8058,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8090,7 +8081,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8113,7 +8104,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8136,7 +8127,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8159,7 +8150,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8182,7 +8173,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8205,7 +8196,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8228,7 +8219,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8251,7 +8242,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8274,7 +8265,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8297,7 +8288,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8320,7 +8311,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8343,7 +8334,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8366,7 +8357,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8389,7 +8380,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8412,7 +8403,7 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8435,7 +8426,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8458,7 +8449,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8481,7 +8472,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8504,7 +8495,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -8527,7 +8518,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -8550,7 +8541,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -8573,7 +8564,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -8596,7 +8587,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8619,7 +8610,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -8642,7 +8633,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -8665,7 +8656,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -8688,7 +8679,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8711,7 +8702,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8734,7 +8725,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8757,7 +8748,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8780,7 +8771,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8803,7 +8794,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8826,7 +8817,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8849,7 +8840,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8872,7 +8863,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8895,7 +8886,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8918,7 +8909,7 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8941,7 +8932,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8964,7 +8955,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8987,7 +8978,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9010,7 +9001,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9033,7 +9024,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9056,7 +9047,7 @@
         <v>75120</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9079,7 +9070,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9102,7 +9093,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9125,7 +9116,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9148,7 +9139,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9171,7 +9162,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9194,7 +9185,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9217,7 +9208,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9240,7 +9231,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9263,7 +9254,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9286,7 +9277,7 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9309,7 +9300,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9332,7 +9323,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9355,7 +9346,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9378,7 +9369,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9401,7 +9392,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9424,7 +9415,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9447,7 +9438,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9470,7 +9461,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9493,7 +9484,7 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9516,7 +9507,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9539,7 +9530,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9562,7 +9553,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9585,7 +9576,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9608,7 +9599,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9631,7 +9622,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9654,7 +9645,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9677,7 +9668,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9700,7 +9691,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9723,7 +9714,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -9746,7 +9737,7 @@
         <v>75114</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -9769,7 +9760,7 @@
         <v>75115</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -9792,7 +9783,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -9815,7 +9806,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -9838,7 +9829,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -9861,7 +9852,7 @@
         <v>75107</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -9884,7 +9875,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -9907,7 +9898,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -9930,7 +9921,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -9953,7 +9944,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -9976,7 +9967,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -9999,7 +9990,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10022,7 +10013,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10045,7 +10036,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10068,7 +10059,7 @@
         <v>75118</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10091,7 +10082,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10114,7 +10105,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10137,7 +10128,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10160,7 +10151,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10183,7 +10174,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10206,7 +10197,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10229,7 +10220,7 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10252,7 +10243,7 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10275,7 +10266,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10298,7 +10289,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10321,7 +10312,7 @@
         <v>75112</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10344,7 +10335,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10367,7 +10358,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10390,7 +10381,7 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10413,12 +10404,12 @@
         <v>75113</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C334" t="s">
         <v>108</v>
@@ -10436,12 +10427,12 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C335" t="s">
         <v>225</v>
@@ -10459,12 +10450,12 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C336" t="s">
         <v>162</v>
@@ -10482,12 +10473,12 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C337" t="s">
         <v>159</v>
@@ -10505,12 +10496,12 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C338" t="s">
         <v>577</v>
@@ -10528,12 +10519,12 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C339" t="s">
         <v>240</v>
@@ -10551,12 +10542,12 @@
         <v>75101</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C340" t="s">
         <v>39</v>
@@ -10574,12 +10565,12 @@
         <v>75104</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C341" t="s">
         <v>228</v>
@@ -10597,12 +10588,12 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C342" t="s">
         <v>404</v>
@@ -10620,12 +10611,12 @@
         <v>75110</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C343" t="s">
         <v>607</v>
@@ -10643,12 +10634,12 @@
         <v>75105</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C344" t="s">
         <v>246</v>
@@ -10666,12 +10657,12 @@
         <v>75106</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C345" t="s">
         <v>165</v>
@@ -10689,12 +10680,12 @@
         <v>75109</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C346" t="s">
         <v>159</v>
@@ -10720,20 +10711,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F349" sqref="F349"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.90625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -10752,11 +10743,8 @@
       <c r="F1" t="s">
         <v>770</v>
       </c>
-      <c r="G1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10771,11 +10759,8 @@
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10792,11 +10777,8 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10817,11 +10799,8 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10839,11 +10818,8 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10864,11 +10840,8 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10889,11 +10862,8 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10914,11 +10884,8 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10936,11 +10903,8 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10958,11 +10922,8 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10980,11 +10941,8 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11005,11 +10963,8 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11030,11 +10985,8 @@
       <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11055,11 +11007,8 @@
       <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11080,11 +11029,8 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11105,11 +11051,8 @@
       <c r="F16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11130,11 +11073,8 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11155,11 +11095,8 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -11178,11 +11115,8 @@
         <v>2</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11197,11 +11131,8 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11215,11 +11146,8 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11235,11 +11163,8 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11258,11 +11183,8 @@
       <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11278,11 +11200,8 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="G24" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11298,11 +11217,8 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11318,11 +11234,8 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -11341,11 +11254,8 @@
       <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11361,11 +11271,8 @@
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="G28" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -11384,11 +11291,8 @@
       <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11404,11 +11308,8 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -11427,11 +11328,8 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11448,11 +11346,8 @@
       <c r="E32">
         <v>3</v>
       </c>
-      <c r="G32" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11473,11 +11368,8 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11495,11 +11387,8 @@
       <c r="E34">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -11520,11 +11409,8 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -11545,11 +11431,8 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="G36" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11567,11 +11450,8 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -11592,11 +11472,8 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11614,11 +11491,8 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11636,11 +11510,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -11661,11 +11532,8 @@
       <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11683,11 +11551,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11705,11 +11570,8 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="G43" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11725,11 +11587,8 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -11746,11 +11605,8 @@
       <c r="F45" s="2">
         <v>4</v>
       </c>
-      <c r="G45" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -11764,11 +11620,8 @@
       <c r="E46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11784,11 +11637,8 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11804,11 +11654,8 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="G48" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11824,11 +11671,8 @@
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="G49" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11847,11 +11691,8 @@
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="G50" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11867,11 +11708,8 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="G51" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11890,11 +11728,8 @@
       <c r="F52">
         <v>4</v>
       </c>
-      <c r="G52" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11913,11 +11748,8 @@
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11936,11 +11768,8 @@
       <c r="F54">
         <v>3</v>
       </c>
-      <c r="G54" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11956,11 +11785,8 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="G55" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11976,11 +11802,8 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="G56" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11996,11 +11819,8 @@
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="G57" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12019,11 +11839,8 @@
       <c r="F58">
         <v>2</v>
       </c>
-      <c r="G58" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12042,11 +11859,8 @@
       <c r="F59">
         <v>2</v>
       </c>
-      <c r="G59" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12062,11 +11876,8 @@
       <c r="E60">
         <v>2</v>
       </c>
-      <c r="G60" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12085,11 +11896,8 @@
       <c r="F61">
         <v>4</v>
       </c>
-      <c r="G61" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12105,11 +11913,8 @@
       <c r="E62">
         <v>2</v>
       </c>
-      <c r="G62" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12125,11 +11930,8 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="G63" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12148,11 +11950,8 @@
       <c r="F64">
         <v>2</v>
       </c>
-      <c r="G64" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12171,11 +11970,8 @@
       <c r="F65">
         <v>2</v>
       </c>
-      <c r="G65" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -12192,11 +11988,8 @@
       <c r="F66" s="1">
         <v>3</v>
       </c>
-      <c r="G66" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -12213,11 +12006,8 @@
       <c r="F67" s="1">
         <v>3</v>
       </c>
-      <c r="G67" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12234,11 +12024,8 @@
       <c r="E68">
         <v>2</v>
       </c>
-      <c r="G68" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12255,11 +12042,8 @@
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="G69" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -12277,11 +12061,8 @@
       <c r="F70">
         <v>2</v>
       </c>
-      <c r="G70" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -12295,11 +12076,8 @@
       <c r="E71" s="1">
         <v>0</v>
       </c>
-      <c r="G71" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12316,11 +12094,8 @@
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="G72" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12340,11 +12115,8 @@
       <c r="F73">
         <v>2</v>
       </c>
-      <c r="G73" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12361,11 +12133,8 @@
       <c r="E74">
         <v>2</v>
       </c>
-      <c r="G74" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12385,11 +12154,8 @@
       <c r="F75">
         <v>2</v>
       </c>
-      <c r="G75" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12409,11 +12175,8 @@
       <c r="F76">
         <v>5</v>
       </c>
-      <c r="G76" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12433,11 +12196,8 @@
       <c r="F77">
         <v>5</v>
       </c>
-      <c r="G77" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12454,11 +12214,8 @@
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12478,11 +12235,8 @@
       <c r="F79">
         <v>3</v>
       </c>
-      <c r="G79" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12502,11 +12256,8 @@
       <c r="F80">
         <v>2</v>
       </c>
-      <c r="G80" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12523,11 +12274,8 @@
       <c r="E81">
         <v>2</v>
       </c>
-      <c r="G81" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12544,11 +12292,8 @@
       <c r="E82">
         <v>2</v>
       </c>
-      <c r="G82" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12568,11 +12313,8 @@
       <c r="F83">
         <v>5</v>
       </c>
-      <c r="G83" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12589,11 +12331,8 @@
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="G84" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12610,11 +12349,8 @@
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="G85" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12634,11 +12370,8 @@
       <c r="F86">
         <v>2</v>
       </c>
-      <c r="G86" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12655,11 +12388,8 @@
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="G87" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12676,11 +12406,8 @@
       <c r="E88">
         <v>2</v>
       </c>
-      <c r="G88" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12697,11 +12424,8 @@
       <c r="E89">
         <v>2</v>
       </c>
-      <c r="G89" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12721,11 +12445,8 @@
       <c r="F90">
         <v>5</v>
       </c>
-      <c r="G90" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12742,11 +12463,8 @@
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="G91" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12766,11 +12484,8 @@
       <c r="F92">
         <v>2</v>
       </c>
-      <c r="G92" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12790,11 +12505,8 @@
       <c r="F93">
         <v>3</v>
       </c>
-      <c r="G93" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12811,11 +12523,8 @@
       <c r="E94">
         <v>2</v>
       </c>
-      <c r="G94" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12833,11 +12542,8 @@
       <c r="E95">
         <v>2</v>
       </c>
-      <c r="G95" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12852,11 +12558,8 @@
       <c r="E96" s="1">
         <v>2</v>
       </c>
-      <c r="G96" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12871,11 +12574,8 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12892,11 +12592,8 @@
       <c r="E98">
         <v>2</v>
       </c>
-      <c r="G98" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12914,11 +12611,8 @@
       <c r="E99">
         <v>2</v>
       </c>
-      <c r="G99" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12939,11 +12633,8 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12964,11 +12655,8 @@
       <c r="F101">
         <v>3</v>
       </c>
-      <c r="G101" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12989,11 +12677,8 @@
       <c r="F102">
         <v>5</v>
       </c>
-      <c r="G102" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -13014,11 +12699,8 @@
       <c r="F103">
         <v>5</v>
       </c>
-      <c r="G103" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13036,11 +12718,8 @@
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="G104" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13061,11 +12740,8 @@
       <c r="F105">
         <v>4</v>
       </c>
-      <c r="G105" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13086,11 +12762,8 @@
       <c r="F106">
         <v>2</v>
       </c>
-      <c r="G106" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13108,11 +12781,8 @@
       <c r="E107">
         <v>2</v>
       </c>
-      <c r="G107" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -13130,11 +12800,8 @@
       <c r="E108">
         <v>2</v>
       </c>
-      <c r="G108" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13155,11 +12822,8 @@
       <c r="F109">
         <v>3</v>
       </c>
-      <c r="G109" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13177,11 +12841,8 @@
       <c r="E110">
         <v>2</v>
       </c>
-      <c r="G110" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13202,11 +12863,8 @@
       <c r="F111">
         <v>4</v>
       </c>
-      <c r="G111" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13224,11 +12882,8 @@
       <c r="E112">
         <v>2</v>
       </c>
-      <c r="G112" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13246,11 +12901,8 @@
       <c r="E113">
         <v>2</v>
       </c>
-      <c r="G113" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13268,11 +12920,8 @@
       <c r="F114">
         <v>3</v>
       </c>
-      <c r="G114" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13290,11 +12939,8 @@
       <c r="F115">
         <v>3</v>
       </c>
-      <c r="G115" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13312,11 +12958,8 @@
       <c r="E116">
         <v>2</v>
       </c>
-      <c r="G116" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13334,11 +12977,8 @@
       <c r="E117">
         <v>2</v>
       </c>
-      <c r="G117" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13359,11 +12999,8 @@
       <c r="F118">
         <v>2</v>
       </c>
-      <c r="G118" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13381,11 +13018,8 @@
       <c r="E119">
         <v>2</v>
       </c>
-      <c r="G119" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13403,11 +13037,8 @@
       <c r="E120">
         <v>2</v>
       </c>
-      <c r="G120" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13425,11 +13056,8 @@
       <c r="E121">
         <v>2</v>
       </c>
-      <c r="G121" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13450,11 +13078,8 @@
       <c r="F122">
         <v>3</v>
       </c>
-      <c r="G122" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13472,11 +13097,8 @@
       <c r="E123">
         <v>2</v>
       </c>
-      <c r="G123" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13494,11 +13116,8 @@
       <c r="E124">
         <v>2</v>
       </c>
-      <c r="G124" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13519,11 +13138,8 @@
       <c r="F125">
         <v>2</v>
       </c>
-      <c r="G125" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13544,11 +13160,8 @@
       <c r="F126">
         <v>5</v>
       </c>
-      <c r="G126" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13566,11 +13179,8 @@
       <c r="E127">
         <v>2</v>
       </c>
-      <c r="G127" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13591,11 +13201,8 @@
       <c r="F128">
         <v>2</v>
       </c>
-      <c r="G128" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13616,11 +13223,8 @@
       <c r="F129">
         <v>3</v>
       </c>
-      <c r="G129" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13638,11 +13242,8 @@
       <c r="E130">
         <v>2</v>
       </c>
-      <c r="G130" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13660,11 +13261,8 @@
       <c r="E131">
         <v>2</v>
       </c>
-      <c r="G131" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13682,11 +13280,8 @@
       <c r="E132">
         <v>2</v>
       </c>
-      <c r="G132" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13707,11 +13302,8 @@
       <c r="F133">
         <v>3</v>
       </c>
-      <c r="G133" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13729,11 +13321,8 @@
       <c r="E134">
         <v>2</v>
       </c>
-      <c r="G134" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13751,11 +13340,8 @@
       <c r="E135">
         <v>2</v>
       </c>
-      <c r="G135" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13773,11 +13359,8 @@
       <c r="E136">
         <v>2</v>
       </c>
-      <c r="G136" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13798,11 +13381,8 @@
       <c r="F137">
         <v>4</v>
       </c>
-      <c r="G137" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13820,11 +13400,8 @@
       <c r="E138">
         <v>2</v>
       </c>
-      <c r="G138" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13845,11 +13422,8 @@
       <c r="F139">
         <v>2</v>
       </c>
-      <c r="G139" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13867,11 +13441,8 @@
       <c r="E140">
         <v>2</v>
       </c>
-      <c r="G140" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13889,11 +13460,8 @@
       <c r="E141">
         <v>2</v>
       </c>
-      <c r="G141" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13911,11 +13479,8 @@
       <c r="F142">
         <v>4</v>
       </c>
-      <c r="G142" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13930,11 +13495,8 @@
       <c r="E143" s="1">
         <v>0</v>
       </c>
-      <c r="G143" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13952,11 +13514,8 @@
       <c r="E144">
         <v>2</v>
       </c>
-      <c r="G144" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13974,11 +13533,8 @@
       <c r="E145">
         <v>2</v>
       </c>
-      <c r="G145" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13996,11 +13552,8 @@
       <c r="E146">
         <v>2</v>
       </c>
-      <c r="G146" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14021,11 +13574,8 @@
       <c r="F147">
         <v>3</v>
       </c>
-      <c r="G147" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -14046,11 +13596,8 @@
       <c r="F148">
         <v>2</v>
       </c>
-      <c r="G148" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -14068,11 +13615,8 @@
       <c r="E149">
         <v>2</v>
       </c>
-      <c r="G149" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -14093,11 +13637,8 @@
       <c r="F150">
         <v>5</v>
       </c>
-      <c r="G150" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -14115,11 +13656,8 @@
       <c r="E151">
         <v>2</v>
       </c>
-      <c r="G151" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -14137,11 +13675,8 @@
       <c r="E152">
         <v>2</v>
       </c>
-      <c r="G152" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -14159,11 +13694,8 @@
       <c r="E153">
         <v>2</v>
       </c>
-      <c r="G153" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -14184,11 +13716,8 @@
       <c r="F154">
         <v>2</v>
       </c>
-      <c r="G154" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -14209,11 +13738,8 @@
       <c r="F155">
         <v>3</v>
       </c>
-      <c r="G155" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -14234,11 +13760,8 @@
       <c r="F156">
         <v>2</v>
       </c>
-      <c r="G156" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -14259,11 +13782,8 @@
       <c r="F157">
         <v>2</v>
       </c>
-      <c r="G157" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14281,11 +13801,8 @@
       <c r="E158">
         <v>2</v>
       </c>
-      <c r="G158" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14306,11 +13823,8 @@
       <c r="F159">
         <v>5</v>
       </c>
-      <c r="G159" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -14328,11 +13842,8 @@
       <c r="E160">
         <v>2</v>
       </c>
-      <c r="G160" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14350,11 +13861,8 @@
       <c r="E161">
         <v>2</v>
       </c>
-      <c r="G161" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14375,11 +13883,8 @@
       <c r="F162">
         <v>2</v>
       </c>
-      <c r="G162" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14397,11 +13902,8 @@
       <c r="E163">
         <v>2</v>
       </c>
-      <c r="G163" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14419,11 +13921,8 @@
       <c r="E164">
         <v>2</v>
       </c>
-      <c r="G164" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14441,11 +13940,8 @@
       <c r="E165">
         <v>2</v>
       </c>
-      <c r="G165" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14466,11 +13962,8 @@
       <c r="F166">
         <v>3</v>
       </c>
-      <c r="G166" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14488,11 +13981,8 @@
       <c r="E167">
         <v>2</v>
       </c>
-      <c r="G167" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14513,11 +14003,8 @@
       <c r="F168">
         <v>1</v>
       </c>
-      <c r="G168" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14535,11 +14022,8 @@
       <c r="E169">
         <v>2</v>
       </c>
-      <c r="G169" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14557,11 +14041,8 @@
       <c r="E170">
         <v>2</v>
       </c>
-      <c r="G170" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -14576,11 +14057,8 @@
       <c r="E171" s="1">
         <v>2</v>
       </c>
-      <c r="G171" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -14598,11 +14076,8 @@
       <c r="F172">
         <v>1</v>
       </c>
-      <c r="G172" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -14620,11 +14095,8 @@
       <c r="F173">
         <v>2</v>
       </c>
-      <c r="G173" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14645,11 +14117,8 @@
       <c r="F174">
         <v>3</v>
       </c>
-      <c r="G174" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14667,11 +14136,8 @@
       <c r="E175">
         <v>2</v>
       </c>
-      <c r="G175" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14689,11 +14155,8 @@
       <c r="E176">
         <v>2</v>
       </c>
-      <c r="G176" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -14714,21 +14177,15 @@
       <c r="F177">
         <v>1</v>
       </c>
-      <c r="G177" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C178" s="3">
-        <f t="shared" si="6"/>
-        <v>176</v>
-      </c>
+      <c r="C178" s="3"/>
       <c r="D178" s="3">
         <f t="shared" si="7"/>
         <v>178</v>
@@ -14739,77 +14196,54 @@
       <c r="F178">
         <v>2</v>
       </c>
-      <c r="G178" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C179" s="3">
-        <f t="shared" si="6"/>
-        <v>177</v>
-      </c>
+      <c r="C179" s="3"/>
       <c r="D179" s="3">
-        <f t="shared" si="7"/>
         <v>179</v>
       </c>
       <c r="E179">
         <v>2</v>
       </c>
-      <c r="G179" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C180" s="3">
-        <f t="shared" si="6"/>
-        <v>178</v>
-      </c>
+      <c r="C180" s="3"/>
       <c r="D180" s="3">
-        <f t="shared" si="7"/>
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E180">
         <v>2</v>
       </c>
-      <c r="G180" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C181" s="3">
-        <f t="shared" si="6"/>
-        <v>179</v>
-      </c>
+      <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -14824,11 +14258,8 @@
       <c r="E182" s="1">
         <v>0</v>
       </c>
-      <c r="G182" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14846,11 +14277,8 @@
       <c r="E183">
         <v>2</v>
       </c>
-      <c r="G183" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14868,11 +14296,8 @@
       <c r="E184">
         <v>2</v>
       </c>
-      <c r="G184" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14890,11 +14315,8 @@
       <c r="E185">
         <v>2</v>
       </c>
-      <c r="G185" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14912,11 +14334,8 @@
       <c r="E186">
         <v>2</v>
       </c>
-      <c r="G186" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14937,11 +14356,8 @@
       <c r="F187">
         <v>3</v>
       </c>
-      <c r="G187" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14959,11 +14375,8 @@
       <c r="E188">
         <v>2</v>
       </c>
-      <c r="G188" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14981,11 +14394,8 @@
       <c r="E189">
         <v>2</v>
       </c>
-      <c r="G189" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -15006,11 +14416,8 @@
       <c r="F190">
         <v>3</v>
       </c>
-      <c r="G190" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -15031,11 +14438,8 @@
       <c r="F191">
         <v>4</v>
       </c>
-      <c r="G191" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -15056,11 +14460,8 @@
       <c r="F192">
         <v>4</v>
       </c>
-      <c r="G192" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15081,11 +14482,8 @@
       <c r="F193">
         <v>3</v>
       </c>
-      <c r="G193" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15106,11 +14504,8 @@
       <c r="F194">
         <v>2</v>
       </c>
-      <c r="G194" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15131,11 +14526,8 @@
       <c r="F195">
         <v>2</v>
       </c>
-      <c r="G195" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15143,7 +14535,7 @@
         <v>511</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:D259" si="8">C195+1</f>
+        <f t="shared" ref="C196:D258" si="8">C195+1</f>
         <v>194</v>
       </c>
       <c r="D196">
@@ -15156,11 +14548,8 @@
       <c r="F196">
         <v>2</v>
       </c>
-      <c r="G196" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15181,11 +14570,8 @@
       <c r="F197">
         <v>3</v>
       </c>
-      <c r="G197" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15206,11 +14592,8 @@
       <c r="F198">
         <v>4</v>
       </c>
-      <c r="G198" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15228,11 +14611,8 @@
       <c r="E199">
         <v>2</v>
       </c>
-      <c r="G199" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15250,11 +14630,8 @@
       <c r="E200">
         <v>2</v>
       </c>
-      <c r="G200" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15272,11 +14649,8 @@
       <c r="E201">
         <v>2</v>
       </c>
-      <c r="G201" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -15297,11 +14671,8 @@
       <c r="F202">
         <v>3</v>
       </c>
-      <c r="G202" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -15319,11 +14690,8 @@
       <c r="E203">
         <v>2</v>
       </c>
-      <c r="G203" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15341,11 +14709,8 @@
       <c r="E204">
         <v>2</v>
       </c>
-      <c r="G204" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15366,11 +14731,8 @@
       <c r="F205">
         <v>2</v>
       </c>
-      <c r="G205" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15388,11 +14750,8 @@
       <c r="E206">
         <v>2</v>
       </c>
-      <c r="G206" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -15413,11 +14772,8 @@
       <c r="F207">
         <v>2</v>
       </c>
-      <c r="G207" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -15435,11 +14791,8 @@
       <c r="E208">
         <v>2</v>
       </c>
-      <c r="G208" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -15457,11 +14810,8 @@
       <c r="E209">
         <v>2</v>
       </c>
-      <c r="G209" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15476,11 +14826,8 @@
       <c r="E210" s="1">
         <v>2</v>
       </c>
-      <c r="G210" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15495,11 +14842,8 @@
       <c r="E211" s="1">
         <v>0</v>
       </c>
-      <c r="G211" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -15516,11 +14860,8 @@
       <c r="E212">
         <v>2</v>
       </c>
-      <c r="G212" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -15541,11 +14882,8 @@
       <c r="F213">
         <v>2</v>
       </c>
-      <c r="G213" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -15566,11 +14904,8 @@
       <c r="F214">
         <v>2</v>
       </c>
-      <c r="G214" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15588,11 +14923,8 @@
       <c r="E215">
         <v>2</v>
       </c>
-      <c r="G215" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15610,11 +14942,8 @@
       <c r="E216">
         <v>2</v>
       </c>
-      <c r="G216" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15632,11 +14961,8 @@
       <c r="E217">
         <v>2</v>
       </c>
-      <c r="G217" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -15654,11 +14980,8 @@
       <c r="E218">
         <v>2</v>
       </c>
-      <c r="G218" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -15679,11 +15002,8 @@
       <c r="F219">
         <v>2</v>
       </c>
-      <c r="G219" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -15701,11 +15021,8 @@
       <c r="E220">
         <v>2</v>
       </c>
-      <c r="G220" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -15723,11 +15040,8 @@
       <c r="E221">
         <v>2</v>
       </c>
-      <c r="G221" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -15748,11 +15062,8 @@
       <c r="F222">
         <v>2</v>
       </c>
-      <c r="G222" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -15770,11 +15081,8 @@
       <c r="E223">
         <v>2</v>
       </c>
-      <c r="G223" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -15795,11 +15103,8 @@
       <c r="F224">
         <v>3</v>
       </c>
-      <c r="G224" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -15817,11 +15122,8 @@
       <c r="E225">
         <v>2</v>
       </c>
-      <c r="G225" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15842,11 +15144,8 @@
       <c r="F226">
         <v>2</v>
       </c>
-      <c r="G226" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15867,11 +15166,8 @@
       <c r="F227">
         <v>3</v>
       </c>
-      <c r="G227" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -15892,11 +15188,8 @@
       <c r="F228">
         <v>2</v>
       </c>
-      <c r="G228" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -15917,11 +15210,8 @@
       <c r="F229">
         <v>2</v>
       </c>
-      <c r="G229" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -15942,11 +15232,8 @@
       <c r="F230">
         <v>2</v>
       </c>
-      <c r="G230" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -15967,11 +15254,8 @@
       <c r="F231">
         <v>3</v>
       </c>
-      <c r="G231" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -15992,11 +15276,8 @@
       <c r="F232">
         <v>4</v>
       </c>
-      <c r="G232" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -16017,11 +15298,8 @@
       <c r="F233">
         <v>2</v>
       </c>
-      <c r="G233" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -16039,11 +15317,8 @@
       <c r="E234">
         <v>2</v>
       </c>
-      <c r="G234" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -16061,11 +15336,8 @@
       <c r="E235">
         <v>2</v>
       </c>
-      <c r="G235" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -16083,11 +15355,8 @@
       <c r="E236">
         <v>2</v>
       </c>
-      <c r="G236" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -16105,11 +15374,8 @@
       <c r="E237">
         <v>2</v>
       </c>
-      <c r="G237" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -16130,11 +15396,8 @@
       <c r="F238">
         <v>4</v>
       </c>
-      <c r="G238" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -16152,11 +15415,8 @@
       <c r="E239">
         <v>2</v>
       </c>
-      <c r="G239" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -16174,11 +15434,8 @@
       <c r="E240">
         <v>2</v>
       </c>
-      <c r="G240" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -16193,11 +15450,8 @@
       <c r="E241" s="1">
         <v>2</v>
       </c>
-      <c r="G241" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -16214,11 +15468,8 @@
       <c r="F242" s="1">
         <v>4</v>
       </c>
-      <c r="G242" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -16239,11 +15490,8 @@
       <c r="F243">
         <v>2</v>
       </c>
-      <c r="G243" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -16261,11 +15509,8 @@
       <c r="E244">
         <v>2</v>
       </c>
-      <c r="G244" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -16283,11 +15528,8 @@
       <c r="E245">
         <v>2</v>
       </c>
-      <c r="G245" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -16305,11 +15547,8 @@
       <c r="E246">
         <v>2</v>
       </c>
-      <c r="G246" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -16330,11 +15569,8 @@
       <c r="F247">
         <v>2</v>
       </c>
-      <c r="G247" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -16352,11 +15588,8 @@
       <c r="E248">
         <v>2</v>
       </c>
-      <c r="G248" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -16377,11 +15610,8 @@
       <c r="F249">
         <v>2</v>
       </c>
-      <c r="G249" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -16399,11 +15629,8 @@
       <c r="E250">
         <v>2</v>
       </c>
-      <c r="G250" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -16424,11 +15651,8 @@
       <c r="F251">
         <v>2</v>
       </c>
-      <c r="G251" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -16446,11 +15670,8 @@
       <c r="E252">
         <v>2</v>
       </c>
-      <c r="G252" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -16471,11 +15692,8 @@
       <c r="F253">
         <v>3</v>
       </c>
-      <c r="G253" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -16493,11 +15711,8 @@
       <c r="E254">
         <v>2</v>
       </c>
-      <c r="G254" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -16515,11 +15730,8 @@
       <c r="E255" s="1">
         <v>2</v>
       </c>
-      <c r="G255" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -16527,7 +15739,6 @@
         <v>631</v>
       </c>
       <c r="C256" s="3">
-        <f t="shared" si="8"/>
         <v>254</v>
       </c>
       <c r="D256" s="3">
@@ -16537,21 +15748,15 @@
       <c r="E256">
         <v>2</v>
       </c>
-      <c r="G256" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C257" s="3">
-        <f t="shared" si="8"/>
-        <v>255</v>
-      </c>
+      <c r="C257" s="3"/>
       <c r="D257" s="3">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -16559,21 +15764,15 @@
       <c r="E257">
         <v>2</v>
       </c>
-      <c r="G257" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C258" s="3">
-        <f t="shared" si="8"/>
-        <v>256</v>
-      </c>
+      <c r="C258" s="3"/>
       <c r="D258" s="3">
         <f t="shared" si="8"/>
         <v>258</v>
@@ -16584,30 +15783,23 @@
       <c r="F258">
         <v>2</v>
       </c>
-      <c r="G258" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C259" s="3">
-        <f t="shared" si="8"/>
-        <v>257</v>
-      </c>
-      <c r="D259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3">
+        <v>259</v>
+      </c>
       <c r="E259">
         <v>2</v>
       </c>
-      <c r="G259" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -16625,21 +15817,15 @@
       <c r="F260">
         <v>2</v>
       </c>
-      <c r="G260" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C261" s="3">
-        <f>259</f>
-        <v>259</v>
-      </c>
+      <c r="C261" s="3"/>
       <c r="D261" s="3">
         <f t="shared" ref="C261:D323" si="9">D260+1</f>
         <v>261</v>
@@ -16647,21 +15833,15 @@
       <c r="E261">
         <v>2</v>
       </c>
-      <c r="G261" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C262" s="3">
-        <f t="shared" si="9"/>
-        <v>260</v>
-      </c>
+      <c r="C262" s="3"/>
       <c r="D262" s="3">
         <f>255</f>
         <v>255</v>
@@ -16669,11 +15849,8 @@
       <c r="E262">
         <v>2</v>
       </c>
-      <c r="G262" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -16691,11 +15868,8 @@
       <c r="F263">
         <v>5</v>
       </c>
-      <c r="G263" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -16715,11 +15889,8 @@
       <c r="F264">
         <v>2</v>
       </c>
-      <c r="G264" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -16737,11 +15908,8 @@
       <c r="E265">
         <v>2</v>
       </c>
-      <c r="G265" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -16762,11 +15930,8 @@
       <c r="F266">
         <v>2</v>
       </c>
-      <c r="G266" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -16787,11 +15952,8 @@
       <c r="F267">
         <v>4</v>
       </c>
-      <c r="G267" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -16809,11 +15971,8 @@
       <c r="E268">
         <v>2</v>
       </c>
-      <c r="G268" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -16834,11 +15993,8 @@
       <c r="F269">
         <v>2</v>
       </c>
-      <c r="G269" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -16856,11 +16012,8 @@
       <c r="E270">
         <v>2</v>
       </c>
-      <c r="G270" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -16878,11 +16031,8 @@
       <c r="E271">
         <v>2</v>
       </c>
-      <c r="G271" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -16903,11 +16053,8 @@
       <c r="F272">
         <v>2</v>
       </c>
-      <c r="G272" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -16925,11 +16072,8 @@
       <c r="E273">
         <v>2</v>
       </c>
-      <c r="G273" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -16947,11 +16091,8 @@
       <c r="F274">
         <v>3</v>
       </c>
-      <c r="G274" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -16966,11 +16107,8 @@
       <c r="E275" s="1">
         <v>0</v>
       </c>
-      <c r="G275" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -16988,11 +16126,8 @@
       <c r="E276">
         <v>2</v>
       </c>
-      <c r="G276" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -17013,11 +16148,8 @@
       <c r="F277">
         <v>2</v>
       </c>
-      <c r="G277" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -17035,11 +16167,8 @@
       <c r="E278">
         <v>2</v>
       </c>
-      <c r="G278" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -17057,11 +16186,8 @@
       <c r="E279">
         <v>2</v>
       </c>
-      <c r="G279" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -17079,11 +16205,8 @@
       <c r="E280">
         <v>2</v>
       </c>
-      <c r="G280" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17104,11 +16227,8 @@
       <c r="F281">
         <v>2</v>
       </c>
-      <c r="G281" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17126,11 +16246,8 @@
       <c r="E282">
         <v>2</v>
       </c>
-      <c r="G282" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17148,11 +16265,8 @@
       <c r="E283">
         <v>2</v>
       </c>
-      <c r="G283" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17170,11 +16284,8 @@
       <c r="E284">
         <v>2</v>
       </c>
-      <c r="G284" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17195,11 +16306,8 @@
       <c r="F285">
         <v>4</v>
       </c>
-      <c r="G285" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17220,11 +16328,8 @@
       <c r="F286">
         <v>4</v>
       </c>
-      <c r="G286" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17245,11 +16350,8 @@
       <c r="F287">
         <v>4</v>
       </c>
-      <c r="G287" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17267,11 +16369,8 @@
       <c r="E288">
         <v>2</v>
       </c>
-      <c r="G288" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17289,11 +16388,8 @@
       <c r="E289">
         <v>2</v>
       </c>
-      <c r="G289" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -17311,11 +16407,8 @@
       <c r="E290">
         <v>2</v>
       </c>
-      <c r="G290" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -17336,11 +16429,8 @@
       <c r="F291">
         <v>2</v>
       </c>
-      <c r="G291" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -17358,11 +16448,8 @@
       <c r="E292">
         <v>2</v>
       </c>
-      <c r="G292" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -17380,11 +16467,8 @@
       <c r="E293">
         <v>2</v>
       </c>
-      <c r="G293" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -17405,11 +16489,8 @@
       <c r="F294">
         <v>5</v>
       </c>
-      <c r="G294" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -17427,11 +16508,8 @@
       <c r="E295">
         <v>2</v>
       </c>
-      <c r="G295" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -17452,11 +16530,8 @@
       <c r="F296">
         <v>2</v>
       </c>
-      <c r="G296" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -17474,11 +16549,8 @@
       <c r="E297">
         <v>2</v>
       </c>
-      <c r="G297" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -17496,11 +16568,8 @@
       <c r="E298">
         <v>2</v>
       </c>
-      <c r="G298" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -17518,11 +16587,8 @@
       <c r="E299">
         <v>2</v>
       </c>
-      <c r="G299" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -17537,11 +16603,8 @@
       <c r="E300" s="1">
         <v>2</v>
       </c>
-      <c r="G300" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -17556,11 +16619,8 @@
       <c r="E301" s="1">
         <v>0</v>
       </c>
-      <c r="G301" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -17578,11 +16638,8 @@
       <c r="E302">
         <v>2</v>
       </c>
-      <c r="G302" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -17600,11 +16657,8 @@
       <c r="E303">
         <v>2</v>
       </c>
-      <c r="G303" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -17622,11 +16676,8 @@
       <c r="E304">
         <v>2</v>
       </c>
-      <c r="G304" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -17647,11 +16698,8 @@
       <c r="F305">
         <v>5</v>
       </c>
-      <c r="G305" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -17672,11 +16720,8 @@
       <c r="F306">
         <v>2</v>
       </c>
-      <c r="G306" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -17694,11 +16739,8 @@
       <c r="E307">
         <v>2</v>
       </c>
-      <c r="G307" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -17716,11 +16758,8 @@
       <c r="E308">
         <v>2</v>
       </c>
-      <c r="G308" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -17741,11 +16780,8 @@
       <c r="F309">
         <v>3</v>
       </c>
-      <c r="G309" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -17766,11 +16802,8 @@
       <c r="F310">
         <v>2</v>
       </c>
-      <c r="G310" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -17791,11 +16824,8 @@
       <c r="F311">
         <v>3</v>
       </c>
-      <c r="G311" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -17816,11 +16846,8 @@
       <c r="F312">
         <v>4</v>
       </c>
-      <c r="G312" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -17838,11 +16865,8 @@
       <c r="E313">
         <v>2</v>
       </c>
-      <c r="G313" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -17863,11 +16887,8 @@
       <c r="F314">
         <v>2</v>
       </c>
-      <c r="G314" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -17888,11 +16909,8 @@
       <c r="F315">
         <v>1</v>
       </c>
-      <c r="G315" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -17910,11 +16928,8 @@
       <c r="E316">
         <v>2</v>
       </c>
-      <c r="G316" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -17929,11 +16944,8 @@
       <c r="E317" s="1">
         <v>2</v>
       </c>
-      <c r="G317" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -17954,11 +16966,8 @@
       <c r="F318">
         <v>1</v>
       </c>
-      <c r="G318" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -17976,11 +16985,8 @@
       <c r="E319">
         <v>2</v>
       </c>
-      <c r="G319" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -17998,11 +17004,8 @@
       <c r="F320">
         <v>3</v>
       </c>
-      <c r="G320" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -18019,11 +17022,8 @@
       <c r="F321" s="1">
         <v>3</v>
       </c>
-      <c r="G321" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -18041,11 +17041,8 @@
       <c r="E322">
         <v>2</v>
       </c>
-      <c r="G322" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -18066,11 +17063,8 @@
       <c r="F323">
         <v>4</v>
       </c>
-      <c r="G323" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -18091,11 +17085,8 @@
       <c r="F324">
         <v>4</v>
       </c>
-      <c r="G324" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -18116,11 +17107,8 @@
       <c r="F325">
         <v>2</v>
       </c>
-      <c r="G325" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -18141,11 +17129,8 @@
       <c r="F326">
         <v>5</v>
       </c>
-      <c r="G326" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -18166,11 +17151,8 @@
       <c r="F327">
         <v>4</v>
       </c>
-      <c r="G327" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -18191,11 +17173,8 @@
       <c r="F328">
         <v>4</v>
       </c>
-      <c r="G328" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -18213,11 +17192,8 @@
       <c r="E329">
         <v>2</v>
       </c>
-      <c r="G329" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -18235,11 +17211,8 @@
       <c r="E330">
         <v>2</v>
       </c>
-      <c r="G330" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -18251,39 +17224,27 @@
         <v>329</v>
       </c>
       <c r="D331">
-        <f t="shared" si="10"/>
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E331">
         <v>2</v>
       </c>
-      <c r="G331" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>761</v>
       </c>
-      <c r="C332">
-        <f t="shared" si="10"/>
-        <v>330</v>
-      </c>
-      <c r="D332">
-        <f t="shared" si="10"/>
-        <v>332</v>
-      </c>
       <c r="E332">
-        <v>2</v>
-      </c>
-      <c r="G332" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -18291,18 +17252,14 @@
         <v>446</v>
       </c>
       <c r="C333" s="1">
-        <f t="shared" si="10"/>
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1">
         <v>2</v>
       </c>
-      <c r="G333" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -18315,11 +17272,8 @@
       <c r="E334">
         <v>0</v>
       </c>
-      <c r="G334" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -18335,11 +17289,8 @@
       <c r="F335">
         <v>5</v>
       </c>
-      <c r="G335" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -18355,11 +17306,8 @@
       <c r="F336">
         <v>2</v>
       </c>
-      <c r="G336" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -18378,11 +17326,8 @@
       <c r="F337">
         <v>4</v>
       </c>
-      <c r="G337" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -18395,11 +17340,8 @@
       <c r="E338">
         <v>6</v>
       </c>
-      <c r="G338" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -18412,11 +17354,8 @@
       <c r="E339">
         <v>0</v>
       </c>
-      <c r="G339" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -18432,11 +17371,8 @@
       <c r="F340">
         <v>5</v>
       </c>
-      <c r="G340" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -18452,11 +17388,8 @@
       <c r="F341">
         <v>5</v>
       </c>
-      <c r="G341" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -18469,11 +17402,8 @@
       <c r="E342">
         <v>6</v>
       </c>
-      <c r="G342" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -18486,11 +17416,8 @@
       <c r="E343">
         <v>0</v>
       </c>
-      <c r="G343" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -18503,11 +17430,8 @@
       <c r="E344">
         <v>6</v>
       </c>
-      <c r="G344" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -18523,11 +17447,8 @@
       <c r="F345">
         <v>3</v>
       </c>
-      <c r="G345" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -18542,9 +17463,6 @@
       </c>
       <c r="F346">
         <v>4</v>
-      </c>
-      <c r="G346" t="s">
-        <v>772</v>
       </c>
     </row>
   </sheetData>
